--- a/Backend/OCI.xlsx
+++ b/Backend/OCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\OCI_2_AZURE\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C7C4EA-DD02-417E-A10D-B334DCE262CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6854FF-CF7A-4495-A0E8-208533877C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -3764,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3808,7 +3808,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3850,7 +3850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -4568,8 +4568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4662,8 +4662,8 @@
     <col min="35" max="35" width="13.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="38" max="50" width="28.44140625" style="35" customWidth="1"/>
-    <col min="51" max="16384" width="28.44140625" style="35"/>
+    <col min="38" max="51" width="28.44140625" style="35" customWidth="1"/>
+    <col min="52" max="16384" width="28.44140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="28" customFormat="1" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Backend/OCI.xlsx
+++ b/Backend/OCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\OCI_2_AZURE\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6854FF-CF7A-4495-A0E8-208533877C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B3FD4-4A12-44DF-B129-91CC114A7EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="612" windowWidth="17280" windowHeight="8964" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="414">
   <si>
     <t xml:space="preserve">
 CD3 Automation Toolkit Release - v2024.2.0</t>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Defined Tags</t>
+  </si>
+  <si>
+    <t>U_ids</t>
   </si>
   <si>
     <t>Matching Rule</t>
@@ -3764,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3808,7 +3811,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3834,12 +3837,12 @@
         <v>6</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:XFD1048576" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation sqref="A1:E1 G1:XFD1 A2:XFD1048576" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3869,19 +3872,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>5</v>
@@ -4568,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4594,16 +4597,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>5</v>
@@ -4662,130 +4665,130 @@
     <col min="35" max="35" width="13.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="38" max="51" width="28.44140625" style="35" customWidth="1"/>
-    <col min="52" max="16384" width="28.44140625" style="35"/>
+    <col min="38" max="55" width="28.44140625" style="35" customWidth="1"/>
+    <col min="56" max="16384" width="28.44140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="28" customFormat="1" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC1" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD1" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -4793,100 +4796,100 @@
         <v>3</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" s="30" t="b">
         <v>1</v>
       </c>
       <c r="Z2" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA2" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD2" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE2" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF2" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG2" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH2" s="30">
         <v>301</v>
@@ -4895,19 +4898,19 @@
         <v>8</v>
       </c>
       <c r="AJ2" s="30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" s="29" t="b">
         <v>0</v>
       </c>
       <c r="AN2" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="29" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4915,94 +4918,94 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U3" s="30"/>
       <c r="V3" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y3" s="30" t="b">
         <v>0</v>
       </c>
       <c r="Z3" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA3" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB3" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC3" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD3" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE3" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG3" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH3" s="30">
         <v>302</v>
@@ -5011,19 +5014,19 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK3" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL3" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="AN3" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5031,76 +5034,76 @@
         <v>5</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U4" s="30"/>
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
       <c r="X4" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA4" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD4" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE4" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF4" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AH4" s="30">
         <v>303</v>
@@ -5109,7 +5112,7 @@
         <v>32</v>
       </c>
       <c r="AN4" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5117,18 +5120,18 @@
         <v>6</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
@@ -5136,7 +5139,7 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P5" s="31"/>
       <c r="Q5" s="30"/>
@@ -5147,19 +5150,19 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AE5" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF5" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30">
@@ -5174,14 +5177,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -5206,10 +5209,10 @@
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AE6" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF6" s="33"/>
       <c r="AG6" s="30"/>
@@ -5223,14 +5226,14 @@
         <v>8</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -5255,10 +5258,10 @@
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
       <c r="AD7" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE7" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF7" s="33"/>
       <c r="AG7" s="30"/>
@@ -5270,14 +5273,14 @@
         <v>9</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -5302,10 +5305,10 @@
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE8" s="30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF8" s="33"/>
       <c r="AG8" s="30"/>
@@ -5317,14 +5320,14 @@
         <v>10</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -5349,10 +5352,10 @@
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
       <c r="AD9" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AE9" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF9" s="33"/>
       <c r="AG9" s="30"/>
@@ -5364,14 +5367,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -5396,10 +5399,10 @@
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
       <c r="AD10" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE10" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="30"/>
@@ -5411,14 +5414,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -5443,10 +5446,10 @@
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
       <c r="AD11" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AE11" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="30"/>
@@ -5459,7 +5462,7 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -5485,7 +5488,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
       <c r="AE12" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="30"/>
@@ -5498,7 +5501,7 @@
       </c>
       <c r="F13" s="30"/>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -5524,7 +5527,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="30"/>
       <c r="AE13" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF13" s="33"/>
       <c r="AG13" s="30"/>
@@ -5537,7 +5540,7 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
@@ -5563,7 +5566,7 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF14" s="33"/>
       <c r="AG14" s="30"/>
@@ -5576,7 +5579,7 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -5602,7 +5605,7 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF15" s="33"/>
       <c r="AG15" s="30"/>
@@ -5615,7 +5618,7 @@
       </c>
       <c r="F16" s="30"/>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
@@ -5641,7 +5644,7 @@
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF16" s="33"/>
       <c r="AG16" s="30"/>
@@ -5654,7 +5657,7 @@
       </c>
       <c r="F17" s="30"/>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -5680,7 +5683,7 @@
       <c r="AC17" s="30"/>
       <c r="AD17" s="30"/>
       <c r="AE17" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF17" s="33"/>
       <c r="AG17" s="30"/>
@@ -5693,7 +5696,7 @@
       </c>
       <c r="F18" s="30"/>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -5719,7 +5722,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="30"/>
       <c r="AE18" s="30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF18" s="33"/>
       <c r="AG18" s="30"/>
@@ -5732,7 +5735,7 @@
       </c>
       <c r="F19" s="30"/>
       <c r="G19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -5758,7 +5761,7 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="30"/>
       <c r="AE19" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF19" s="33"/>
       <c r="AG19" s="30"/>
@@ -5771,7 +5774,7 @@
       </c>
       <c r="F20" s="30"/>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -5797,7 +5800,7 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF20" s="33"/>
       <c r="AG20" s="30"/>
@@ -5810,7 +5813,7 @@
       </c>
       <c r="F21" s="30"/>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -5836,7 +5839,7 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="30"/>
       <c r="AE21" s="30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF21" s="33"/>
       <c r="AG21" s="30"/>
@@ -5849,7 +5852,7 @@
       </c>
       <c r="F22" s="30"/>
       <c r="G22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -5875,7 +5878,7 @@
       <c r="AC22" s="30"/>
       <c r="AD22" s="30"/>
       <c r="AE22" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF22" s="33"/>
       <c r="AG22" s="30"/>
@@ -5888,7 +5891,7 @@
       </c>
       <c r="F23" s="30"/>
       <c r="G23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -5914,7 +5917,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="30"/>
       <c r="AE23" s="30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF23" s="33"/>
       <c r="AG23" s="30"/>
@@ -5927,7 +5930,7 @@
       </c>
       <c r="F24" s="30"/>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -5953,7 +5956,7 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="30"/>
       <c r="AE24" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF24" s="33"/>
       <c r="AG24" s="30"/>
@@ -5966,7 +5969,7 @@
       </c>
       <c r="F25" s="30"/>
       <c r="G25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -5992,7 +5995,7 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="30"/>
       <c r="AE25" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF25" s="33"/>
       <c r="AG25" s="30"/>
@@ -6005,7 +6008,7 @@
       </c>
       <c r="F26" s="30"/>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -6031,7 +6034,7 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
       <c r="AE26" s="30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF26" s="33"/>
       <c r="AG26" s="30"/>
@@ -6044,7 +6047,7 @@
       </c>
       <c r="F27" s="30"/>
       <c r="G27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -6070,7 +6073,7 @@
       <c r="AC27" s="30"/>
       <c r="AD27" s="30"/>
       <c r="AE27" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF27" s="33"/>
       <c r="AG27" s="30"/>
@@ -6083,7 +6086,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -6109,7 +6112,7 @@
       <c r="AC28" s="30"/>
       <c r="AD28" s="30"/>
       <c r="AE28" s="30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF28" s="33"/>
       <c r="AG28" s="30"/>
@@ -6122,7 +6125,7 @@
       </c>
       <c r="F29" s="30"/>
       <c r="G29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -6148,7 +6151,7 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="30"/>
       <c r="AE29" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF29" s="33"/>
       <c r="AG29" s="30"/>
@@ -6161,7 +6164,7 @@
       </c>
       <c r="F30" s="30"/>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
@@ -6187,7 +6190,7 @@
       <c r="AC30" s="30"/>
       <c r="AD30" s="30"/>
       <c r="AE30" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF30" s="33"/>
       <c r="AG30" s="30"/>
@@ -6200,7 +6203,7 @@
       </c>
       <c r="F31" s="30"/>
       <c r="G31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -6226,7 +6229,7 @@
       <c r="AC31" s="30"/>
       <c r="AD31" s="30"/>
       <c r="AE31" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF31" s="33"/>
       <c r="AG31" s="30"/>
@@ -6239,7 +6242,7 @@
       </c>
       <c r="F32" s="30"/>
       <c r="G32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
@@ -6265,7 +6268,7 @@
       <c r="AC32" s="30"/>
       <c r="AD32" s="30"/>
       <c r="AE32" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF32" s="33"/>
       <c r="AG32" s="30"/>
@@ -6278,7 +6281,7 @@
       </c>
       <c r="F33" s="30"/>
       <c r="G33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -6304,7 +6307,7 @@
       <c r="AC33" s="30"/>
       <c r="AD33" s="30"/>
       <c r="AE33" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF33" s="33"/>
       <c r="AG33" s="30"/>
@@ -6317,7 +6320,7 @@
       </c>
       <c r="F34" s="30"/>
       <c r="G34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
@@ -6343,7 +6346,7 @@
       <c r="AC34" s="30"/>
       <c r="AD34" s="30"/>
       <c r="AE34" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF34" s="33"/>
       <c r="AG34" s="30"/>
@@ -6356,7 +6359,7 @@
       </c>
       <c r="F35" s="30"/>
       <c r="G35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -6382,7 +6385,7 @@
       <c r="AC35" s="30"/>
       <c r="AD35" s="30"/>
       <c r="AE35" s="30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF35" s="33"/>
       <c r="AG35" s="30"/>
@@ -6395,7 +6398,7 @@
       </c>
       <c r="F36" s="30"/>
       <c r="G36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
@@ -6421,7 +6424,7 @@
       <c r="AC36" s="30"/>
       <c r="AD36" s="30"/>
       <c r="AE36" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF36" s="33"/>
       <c r="AG36" s="30"/>
@@ -6434,7 +6437,7 @@
       </c>
       <c r="F37" s="30"/>
       <c r="G37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -6460,7 +6463,7 @@
       <c r="AC37" s="30"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF37" s="33"/>
       <c r="AG37" s="30"/>
@@ -6473,7 +6476,7 @@
       </c>
       <c r="F38" s="30"/>
       <c r="G38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -6499,7 +6502,7 @@
       <c r="AC38" s="30"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF38" s="33"/>
       <c r="AG38" s="30"/>
@@ -6512,7 +6515,7 @@
       </c>
       <c r="F39" s="30"/>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -6538,7 +6541,7 @@
       <c r="AC39" s="30"/>
       <c r="AD39" s="30"/>
       <c r="AE39" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF39" s="33"/>
       <c r="AG39" s="30"/>
@@ -6551,7 +6554,7 @@
       </c>
       <c r="F40" s="30"/>
       <c r="G40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -6576,7 +6579,7 @@
       <c r="AC40" s="30"/>
       <c r="AD40" s="30"/>
       <c r="AE40" s="30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF40" s="33"/>
       <c r="AG40" s="30"/>
@@ -6588,7 +6591,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K41" s="30"/>
       <c r="M41" s="30"/>
@@ -6601,7 +6604,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K42" s="30"/>
       <c r="M42" s="30"/>
@@ -6613,7 +6616,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K43" s="30"/>
       <c r="M43" s="30"/>
@@ -6625,7 +6628,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K44" s="30"/>
       <c r="M44" s="30"/>
@@ -6712,782 +6715,782 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I2" s="18">
         <v>80</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K2" s="19">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I3" s="18">
         <v>40</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K3" s="19">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" s="19"/>
       <c r="H4" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F8" s="19"/>
       <c r="H8" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F12" s="19"/>
       <c r="H12" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H16" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H24" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H25" s="19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H26" s="19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H27" s="19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H28" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H29" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H30" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H31" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H32" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H37" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H38" s="19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H39" s="19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H40" s="19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H41" s="19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H42" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H43" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H44" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H45" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H46" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H47" s="19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H48" s="19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H55" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H56" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H57" s="19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H58" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H59" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H60" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H61" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H62" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H63" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H64" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H65" s="19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H66" s="19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H67" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H68" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H69" s="19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H70" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H71" s="19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H72" s="19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H73" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H74" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H75" s="19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H76" s="19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H77" s="19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H78" s="19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H79" s="19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H80" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H81" s="19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H82" s="19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H83" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H84" s="19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H85" s="19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H86" s="19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H87" s="19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H88" s="19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H89" s="19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H90" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H91" s="19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H92" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H93" s="19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H94" s="19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H95" s="19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H96" s="19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H97" s="19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H98" s="19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H99" s="19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H100" s="19" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H101" s="19" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H102" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H103" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H104" s="19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H105" s="19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H106" s="19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H107" s="19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H108" s="19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -7516,36 +7519,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="11">
         <v>301</v>
@@ -7556,16 +7559,16 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" s="16">
         <v>302</v>
@@ -7576,16 +7579,16 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" s="16">
         <v>303</v>
@@ -7596,13 +7599,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="16">
@@ -7614,10 +7617,10 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="10"/>
       <c r="E6" s="16">
@@ -7627,189 +7630,189 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7837,16 +7840,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7854,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7862,7 +7865,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7870,7 +7873,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7878,7 +7881,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
